--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,9 +590,184 @@
         <v>RCB won by 8 wickets (with 39 balls remaining)</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Gurkeerat Singh Mann</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Oct 25 2020</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Gurkeerat Singh Mann</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D8" t="str">
+        <v>15</v>
+      </c>
+      <c r="E8" t="str">
+        <v>24</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>62.50</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Oct 31 2020</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Gurkeerat Singh Mann</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D9" t="str">
+        <v>14</v>
+      </c>
+      <c r="E9" t="str">
+        <v>11</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>127.27</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Oct 28 2020</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Gurkeerat Singh Mann</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D10" t="str">
+        <v>19</v>
+      </c>
+      <c r="E10" t="str">
+        <v>17</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>111.76</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oct 17 2020</v>
+      </c>
+      <c r="K10" t="str">
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Gurkeerat Singh Mann</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D11" t="str">
+        <v>21</v>
+      </c>
+      <c r="E11" t="str">
+        <v>26</v>
+      </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>80.76</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Oct 21 2020</v>
+      </c>
+      <c r="K11" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>